--- a/144F20/Topic 4/QR 2-5 Tech Template.xlsx
+++ b/144F20/Topic 4/QR 2-5 Tech Template.xlsx
@@ -1,33 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65051669-71C2-45A0-BB37-CA8AE9C34E39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17916" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PayoffCC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{1D4484EF-632D-449A-B301-C5579E8C9CF7}" mergeInterval="0" personalView="1" xWindow="32" yWindow="32" windowWidth="1493" windowHeight="938" activeSheetId="1" showComments="commIndAndComment"/>
+  </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Months</t>
   </si>
   <si>
-    <t>Balance</t>
+    <t>2% decrease per month</t>
+  </si>
+  <si>
+    <t>Your name:</t>
+  </si>
+  <si>
+    <t>First month at or below $1,000.00 in column B</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>If a cell is shaded</t>
+  </si>
+  <si>
+    <t>You should</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Enter a text response</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Enter a number</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Enter an Excel formula</t>
+  </si>
+  <si>
+    <t>Any other color</t>
+  </si>
+  <si>
+    <t>Make no changes</t>
+  </si>
+  <si>
+    <t>First month at or below $20.00 in column B</t>
+  </si>
+  <si>
+    <t>Final payment in column B</t>
+  </si>
+  <si>
+    <t>Follow these instructions:
+1. Enter your name in cell F4. (This must be at least five letters. Add additional characters to reach five if needed.)
+2. Write a formula in cell B3 that reduces the amount in cell B2 by 2%.
+Then use the fill-down feature to complete column B until the balance drops to at or below $1,000.00.
+3. After the ballance falls below $1000.00 continue in column B by reducing the balance by $20.00 per month.
+4. In cell E2, enter the number of months at which the value in column B is first at or below $1,000.00.  In cell F2, enter the number of months at which the value in column B is first at or below $20.00.  In cell G2, enter the final balance at or below $20.00.
+5. Format cells E2 and F2 as Number with 0 decimal places and cell G2 as Currency with 2 decimal places.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -45,7 +117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,8 +130,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -82,16 +178,501 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -110,95 +691,22 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1562100" y="523874"/>
-          <a:ext cx="4276725" cy="2409826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Write a formula in cell</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> B3 that will reduce the amount in cell B2 by 2%.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Then use the fill-down feature to complete columns A and B until the balance drops below $1000.  In the next month, change the formula so that it subtracts $20 from the balance.  Use the fill-down feature again to continue to complete columns A and B until the balance drops below $20.  One more payment will be required to pay off the balance.  Change the formula to subtract this value.     </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>How many months were required?</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A6C22FE4-03B1-484F-BF11-E7ED68247815}">
+  <header guid="{A6C22FE4-03B1-484F-BF11-E7ED68247815}" dateTime="2020-10-05T11:30:00" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -277,6 +785,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -312,6 +837,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -487,47 +1029,2203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="7"/>
+    <col min="2" max="2" width="14.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="1"/>
+    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" style="1"/>
+    <col min="8" max="8" width="7.77734375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="39" t="str">
+        <f>IF(LEN(E4)&lt;5,"Enter your name in cell F4",MOD(CODE(MID(E4,3,1))*19,13)*15+2100)</f>
+        <v>Enter your name in cell F4</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="26">
         <f>A2+1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="27">
+        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="27">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="27">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="27">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="24"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="E25" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="E26" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="E27" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="E28" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="E29" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="27">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="E30" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="27">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="27">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="24"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="27">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="27">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="24"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="27">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="24"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="27">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="24"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="27">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="24"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="27">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="24"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="27">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="24"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="27">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="27">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="27">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="24"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="27">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="24"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="27">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="24"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="24"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="27">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="24"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="27">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="27">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="24"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="27">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="24"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="27">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="24"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="27">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B55" s="24"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="27">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B56" s="24"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="27">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B57" s="24"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="27">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="24"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="27">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B59" s="24"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="27">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B60" s="24"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="27">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B61" s="24"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="27">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B62" s="24"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="27">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B63" s="24"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="27">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B64" s="24"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="27">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B65" s="24"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="27">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B66" s="24"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="27">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B67" s="24"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="27">
+        <f t="shared" ref="A68:A131" si="1">A67+1</f>
+        <v>66</v>
+      </c>
+      <c r="B68" s="24"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="27">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B69" s="24"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="27">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B70" s="24"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="27">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B71" s="24"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="27">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B72" s="24"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="27">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="B73" s="24"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="27">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="B74" s="24"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="27">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="27">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="27">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="B77" s="24"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="27">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="B78" s="24"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="27">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="B79" s="24"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="27">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B80" s="24"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="27">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="B81" s="24"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="27">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B82" s="24"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="27">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="B83" s="24"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="27">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B84" s="24"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="27">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="B85" s="24"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="27">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="B86" s="24"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="27">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="B87" s="24"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="27">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="B88" s="24"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="27">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="B89" s="24"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="27">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="B90" s="24"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="27">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="B91" s="24"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="27">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B92" s="24"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="27">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="B93" s="24"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="27">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="B94" s="24"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="27">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="B95" s="24"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="27">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="B96" s="24"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="27">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="24"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="27">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B98" s="24"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="27">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="B99" s="24"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="27">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="B100" s="24"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="27">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="B101" s="24"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="27">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B102" s="24"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="27">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B103" s="24"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="27">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B104" s="24"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="27">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B105" s="24"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="27">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B106" s="24"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="27">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B107" s="24"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="27">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B108" s="24"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="27">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B109" s="24"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="27">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B110" s="24"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="27">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B111" s="24"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="27">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B112" s="24"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="27">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B113" s="24"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="27">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B114" s="24"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="27">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B115" s="24"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="27">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B116" s="24"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="27">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="B117" s="24"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="27">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="B118" s="24"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="27">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B119" s="24"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="27">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B120" s="24"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="27">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B121" s="24"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="27">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B122" s="24"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="27">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="B123" s="24"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="27">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B124" s="24"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="27">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B125" s="24"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="27">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B126" s="24"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="27">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B127" s="24"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="27">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B128" s="24"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="27">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B129" s="24"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="27">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B130" s="24"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="27">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B131" s="24"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="27">
+        <f t="shared" ref="A132:A195" si="2">A131+1</f>
+        <v>130</v>
+      </c>
+      <c r="B132" s="24"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="27">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="B133" s="24"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="27">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B134" s="24"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="27">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B135" s="24"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="27">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B136" s="24"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="27">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B137" s="24"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="27">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B138" s="24"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="27">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B139" s="24"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="27">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B140" s="24"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="27">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B141" s="24"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="27">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B142" s="24"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="27">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B143" s="24"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="27">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B144" s="24"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="27">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B145" s="24"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="27">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B146" s="24"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="27">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B147" s="24"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="27">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="24"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="27">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B149" s="24"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="27">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="24"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="27">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="24"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="27">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B152" s="24"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="27">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B153" s="24"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="27">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B154" s="24"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="27">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B155" s="24"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="27">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B156" s="24"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="27">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B157" s="24"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="27">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B158" s="24"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="27">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B159" s="24"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="27">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B160" s="24"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="27">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B161" s="24"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="27">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B162" s="24"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="27">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B163" s="24"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="27">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B164" s="24"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="27">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B165" s="24"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="27">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B166" s="24"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="27">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B167" s="24"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="27">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B168" s="24"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="27">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B169" s="24"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="27">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B170" s="24"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="27">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B171" s="24"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="27">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B172" s="24"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="27">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B173" s="24"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="27">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B174" s="24"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="27">
+        <f t="shared" si="2"/>
+        <v>173</v>
+      </c>
+      <c r="B175" s="24"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="27">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="B176" s="24"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="27">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="B177" s="24"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="27">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B178" s="24"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="27">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B179" s="24"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="27">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B180" s="24"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="27">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B181" s="24"/>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="27">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B182" s="24"/>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="27">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B183" s="24"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="27">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B184" s="24"/>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="27">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B185" s="24"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="27">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B186" s="24"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="27">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B187" s="24"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="27">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B188" s="24"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="27">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B189" s="24"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="27">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B190" s="24"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="27">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B191" s="24"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="27">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B192" s="24"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="27">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B193" s="24"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="27">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B194" s="24"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="27">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B195" s="24"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="27">
+        <f t="shared" ref="A196:A202" si="3">A195+1</f>
+        <v>194</v>
+      </c>
+      <c r="B196" s="24"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="27">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="B197" s="24"/>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="27">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="B198" s="24"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="27">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="B199" s="24"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="27">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="B200" s="24"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="27">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="B201" s="24"/>
+    </row>
+    <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="28">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="B202" s="24"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="25"/>
+      <c r="B203" s="6"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="5"/>
+      <c r="B204" s="6"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="5"/>
+      <c r="B205" s="6"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="5"/>
+      <c r="B206" s="6"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="5"/>
+      <c r="B207" s="6"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="5"/>
+      <c r="B208" s="6"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="5"/>
+      <c r="B209" s="6"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="5"/>
+      <c r="B210" s="6"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="5"/>
+      <c r="B211" s="6"/>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="5"/>
+      <c r="B212" s="6"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="5"/>
+      <c r="B213" s="6"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="5"/>
+      <c r="B214" s="6"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="5"/>
+      <c r="B215" s="6"/>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="5"/>
+      <c r="B216" s="6"/>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="5"/>
+      <c r="B217" s="6"/>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="5"/>
+      <c r="B218" s="6"/>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="5"/>
+      <c r="B219" s="6"/>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="5"/>
+      <c r="B220" s="6"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="5"/>
+      <c r="B221" s="6"/>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="5"/>
+      <c r="B222" s="6"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="5"/>
+      <c r="B223" s="6"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="5"/>
+      <c r="B224" s="6"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="5"/>
+      <c r="B225" s="6"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="5"/>
+      <c r="B226" s="6"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="5"/>
+      <c r="B227" s="6"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="5"/>
+      <c r="B228" s="6"/>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="5"/>
+      <c r="B229" s="6"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="5"/>
+      <c r="B230" s="6"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="5"/>
+      <c r="B231" s="6"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="5"/>
+      <c r="B232" s="6"/>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="5"/>
+      <c r="B233" s="6"/>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="5"/>
+      <c r="B234" s="6"/>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="5"/>
+      <c r="B235" s="6"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="5"/>
+      <c r="B236" s="6"/>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="5"/>
+      <c r="B237" s="6"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="5"/>
+      <c r="B238" s="6"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="5"/>
+      <c r="B239" s="6"/>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="5"/>
+      <c r="B240" s="6"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="5"/>
+      <c r="B241" s="6"/>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="5"/>
+      <c r="B242" s="6"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="5"/>
+      <c r="B243" s="6"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="5"/>
+      <c r="B244" s="6"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="5"/>
+      <c r="B245" s="6"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="5"/>
+      <c r="B246" s="6"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="5"/>
+      <c r="B247" s="6"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="5"/>
+      <c r="B248" s="6"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="5"/>
+      <c r="B249" s="6"/>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="5"/>
+      <c r="B250" s="6"/>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="5"/>
+      <c r="B251" s="6"/>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="5"/>
+      <c r="B252" s="6"/>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="5"/>
+      <c r="B253" s="6"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="5"/>
+      <c r="B254" s="6"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="5"/>
+      <c r="B255" s="6"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="5"/>
+      <c r="B256" s="6"/>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="5"/>
+      <c r="B257" s="6"/>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="5"/>
+      <c r="B258" s="6"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="5"/>
+      <c r="B259" s="6"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="5"/>
+      <c r="B260" s="6"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="5"/>
+      <c r="B261" s="6"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="5"/>
+      <c r="B262" s="6"/>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="5"/>
+      <c r="B263" s="6"/>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="5"/>
+      <c r="B264" s="6"/>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="5"/>
+      <c r="B265" s="6"/>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="5"/>
+      <c r="B266" s="6"/>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="5"/>
+      <c r="B267" s="6"/>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="5"/>
+      <c r="B268" s="6"/>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="5"/>
+      <c r="B269" s="6"/>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="5"/>
+      <c r="B270" s="6"/>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="5"/>
+      <c r="B271" s="6"/>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="5"/>
+      <c r="B272" s="6"/>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="5"/>
+      <c r="B273" s="6"/>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="5"/>
+      <c r="B274" s="6"/>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="5"/>
+      <c r="B275" s="6"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="5"/>
+      <c r="B276" s="6"/>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="5"/>
+      <c r="B277" s="6"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="5"/>
+      <c r="B278" s="6"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="5"/>
+      <c r="B279" s="6"/>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="5"/>
+      <c r="B280" s="6"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="5"/>
+      <c r="B281" s="6"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="5"/>
+      <c r="B282" s="6"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="5"/>
+      <c r="B283" s="6"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="5"/>
+      <c r="B284" s="6"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="5"/>
+      <c r="B285" s="6"/>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="5"/>
+      <c r="B286" s="6"/>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="5"/>
+      <c r="B287" s="6"/>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="5"/>
+      <c r="B288" s="6"/>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="5"/>
+      <c r="B289" s="6"/>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="5"/>
+      <c r="B290" s="6"/>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="5"/>
+      <c r="B291" s="6"/>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="5"/>
+      <c r="B292" s="6"/>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="5"/>
+      <c r="B293" s="6"/>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="5"/>
+      <c r="B294" s="6"/>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="5"/>
+      <c r="B295" s="6"/>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="5"/>
+      <c r="B296" s="6"/>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="5"/>
+      <c r="B297" s="6"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="5"/>
+      <c r="B298" s="6"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="5"/>
+      <c r="B299" s="6"/>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="5"/>
+      <c r="B300" s="6"/>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="5"/>
+      <c r="B301" s="6"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="5"/>
+      <c r="B302" s="6"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="5"/>
+      <c r="B303" s="6"/>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="5"/>
+      <c r="B304" s="6"/>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="5"/>
+      <c r="B305" s="6"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="5"/>
+      <c r="B306" s="6"/>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="5"/>
+      <c r="B307" s="6"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="5"/>
+      <c r="B308" s="6"/>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="5"/>
+      <c r="B309" s="6"/>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="5"/>
+      <c r="B310" s="6"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="5"/>
+      <c r="B311" s="6"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="5"/>
+      <c r="B312" s="6"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="5"/>
+      <c r="B313" s="6"/>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="5"/>
+      <c r="B314" s="6"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="5"/>
+      <c r="B315" s="6"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="5"/>
+      <c r="B316" s="6"/>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="5"/>
+      <c r="B317" s="6"/>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="5"/>
+      <c r="B318" s="6"/>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="5"/>
+      <c r="B319" s="6"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="5"/>
+      <c r="B320" s="6"/>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="5"/>
+      <c r="B321" s="6"/>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="5"/>
+      <c r="B322" s="6"/>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="5"/>
+      <c r="B323" s="6"/>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="5"/>
+      <c r="B324" s="6"/>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="5"/>
+      <c r="B325" s="6"/>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="5"/>
+      <c r="B326" s="6"/>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="5"/>
+      <c r="B327" s="6"/>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="5"/>
+      <c r="B328" s="6"/>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="5"/>
+      <c r="B329" s="6"/>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="5"/>
+      <c r="B330" s="6"/>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="5"/>
+      <c r="B331" s="6"/>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="5"/>
+      <c r="B332" s="6"/>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="5"/>
+      <c r="B333" s="6"/>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="5"/>
+      <c r="B334" s="6"/>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="5"/>
+      <c r="B335" s="6"/>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="5"/>
+      <c r="B336" s="6"/>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="5"/>
+      <c r="B337" s="6"/>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="5"/>
+      <c r="B338" s="6"/>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="5"/>
+      <c r="B339" s="6"/>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="5"/>
+      <c r="B340" s="6"/>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="5"/>
+      <c r="B341" s="6"/>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="5"/>
+      <c r="B342" s="6"/>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="5"/>
+      <c r="B343" s="6"/>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="5"/>
+      <c r="B344" s="6"/>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="5"/>
+      <c r="B345" s="6"/>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="5"/>
+      <c r="B346" s="6"/>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="5"/>
+      <c r="B347" s="6"/>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="5"/>
+      <c r="B348" s="6"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Xc3WzR5P8hSITUyJui0DLSCAfSRjRFt88h/gXVj6yu7/B/sW8BCwOMvDcUxJn0jP4m1mWnnAxT9/YOaotZT73Q==" saltValue="n+SPVinKz/adI2G48LRLMQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <customSheetViews>
+    <customSheetView guid="{1D4484EF-632D-449A-B301-C5579E8C9CF7}" scale="115">
+      <selection activeCell="D24" sqref="D24"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="3">
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="D6:I23"/>
+    <mergeCell ref="E25:F25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/144F20/Topic 4/QR 2-5 Tech Template.xlsx
+++ b/144F20/Topic 4/QR 2-5 Tech Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\Offline\Course Materials\git\Teaching\144F20\Topic 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.ketchersid\OneDrive - GCU Employees\Course Materials\git\Teaching\144F20\Topic 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65051669-71C2-45A0-BB37-CA8AE9C34E39}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{C761EE4E-9199-4539-8FE0-EB7406D2434E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17916" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,14 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -545,42 +537,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -642,14 +598,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -671,6 +619,58 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -689,24 +689,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A6C22FE4-03B1-484F-BF11-E7ED68247815}">
-  <header guid="{A6C22FE4-03B1-484F-BF11-E7ED68247815}" dateTime="2020-10-05T11:30:00" maxSheetId="2" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="1">
-      <sheetId val="1"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1038,8 +1020,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="7"/>
-    <col min="2" max="2" width="14.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="5"/>
+    <col min="2" max="2" width="14.77734375" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.77734375" style="1"/>
     <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -1050,2166 +1032,2166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22">
+      <c r="A2" s="11">
         <v>0</v>
       </c>
-      <c r="B2" s="39" t="str">
+      <c r="B2" s="26" t="str">
         <f>IF(LEN(E4)&lt;5,"Enter your name in cell F4",MOD(CODE(MID(E4,3,1))*19,13)*15+2100)</f>
         <v>Enter your name in cell F4</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
+      <c r="A3" s="15">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="27">
+      <c r="A4" s="16">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="13"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27">
+      <c r="A5" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+      <c r="A6" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="13"/>
+      <c r="D6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="13"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="13"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="B20" s="13"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
+      <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+      <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14"/>
+      <c r="B22" s="13"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27">
+      <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
+      <c r="B23" s="13"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="27">
+      <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="E25" s="34" t="s">
+      <c r="B25" s="13"/>
+      <c r="E25" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="35"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="27">
+      <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="E26" s="29" t="s">
+      <c r="B26" s="13"/>
+      <c r="E26" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="27">
+      <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="E27" s="37" t="s">
+      <c r="B27" s="13"/>
+      <c r="E27" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="27">
+      <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="E28" s="36" t="s">
+      <c r="B28" s="13"/>
+      <c r="E28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="27">
+      <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="E29" s="38" t="s">
+      <c r="B29" s="13"/>
+      <c r="E29" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="20" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="27">
+      <c r="A30" s="16">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="E30" s="32" t="s">
+      <c r="B30" s="13"/>
+      <c r="E30" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="27">
+      <c r="A31" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B31" s="24"/>
+      <c r="B31" s="13"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="27">
+      <c r="A32" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="13"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="27">
+      <c r="A33" s="16">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B33" s="24"/>
+      <c r="B33" s="13"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="27">
+      <c r="A34" s="16">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B34" s="24"/>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="27">
+      <c r="A35" s="16">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="13"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="27">
+      <c r="A36" s="16">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="13"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="27">
+      <c r="A37" s="16">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B37" s="24"/>
+      <c r="B37" s="13"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="27">
+      <c r="A38" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="13"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="27">
+      <c r="A39" s="16">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="13"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="27">
+      <c r="A40" s="16">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B40" s="24"/>
+      <c r="B40" s="13"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="27">
+      <c r="A41" s="16">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="24"/>
+      <c r="B41" s="13"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="27">
+      <c r="A42" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="13"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="27">
+      <c r="A43" s="16">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B43" s="24"/>
+      <c r="B43" s="13"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="27">
+      <c r="A44" s="16">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B44" s="24"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="27">
+      <c r="A45" s="16">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B45" s="24"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="27">
+      <c r="A46" s="16">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="27">
+      <c r="A47" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B47" s="24"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="27">
+      <c r="A48" s="16">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B48" s="24"/>
+      <c r="B48" s="13"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="27">
+      <c r="A49" s="16">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="27">
+      <c r="A50" s="16">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B50" s="24"/>
+      <c r="B50" s="13"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="27">
+      <c r="A51" s="16">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B51" s="24"/>
+      <c r="B51" s="13"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="27">
+      <c r="A52" s="16">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B52" s="24"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="27">
+      <c r="A53" s="16">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B53" s="24"/>
+      <c r="B53" s="13"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="27">
+      <c r="A54" s="16">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B54" s="24"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="27">
+      <c r="A55" s="16">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B55" s="24"/>
+      <c r="B55" s="13"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="27">
+      <c r="A56" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="13"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="27">
+      <c r="A57" s="16">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B57" s="24"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="27">
+      <c r="A58" s="16">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="13"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="27">
+      <c r="A59" s="16">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B59" s="24"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="27">
+      <c r="A60" s="16">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="13"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="27">
+      <c r="A61" s="16">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="27">
+      <c r="A62" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B62" s="24"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="27">
+      <c r="A63" s="16">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B63" s="24"/>
+      <c r="B63" s="13"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="27">
+      <c r="A64" s="16">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B64" s="24"/>
+      <c r="B64" s="13"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="27">
+      <c r="A65" s="16">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B65" s="24"/>
+      <c r="B65" s="13"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="27">
+      <c r="A66" s="16">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B66" s="24"/>
+      <c r="B66" s="13"/>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="27">
+      <c r="A67" s="16">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B67" s="24"/>
+      <c r="B67" s="13"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="27">
+      <c r="A68" s="16">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>66</v>
       </c>
-      <c r="B68" s="24"/>
+      <c r="B68" s="13"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="27">
+      <c r="A69" s="16">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B69" s="24"/>
+      <c r="B69" s="13"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="27">
+      <c r="A70" s="16">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="13"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="27">
+      <c r="A71" s="16">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B71" s="24"/>
+      <c r="B71" s="13"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="27">
+      <c r="A72" s="16">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B72" s="24"/>
+      <c r="B72" s="13"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="27">
+      <c r="A73" s="16">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B73" s="24"/>
+      <c r="B73" s="13"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="27">
+      <c r="A74" s="16">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="13"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="27">
+      <c r="A75" s="16">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B75" s="24"/>
+      <c r="B75" s="13"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="27">
+      <c r="A76" s="16">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B76" s="24"/>
+      <c r="B76" s="13"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="27">
+      <c r="A77" s="16">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B77" s="24"/>
+      <c r="B77" s="13"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="27">
+      <c r="A78" s="16">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B78" s="24"/>
+      <c r="B78" s="13"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="27">
+      <c r="A79" s="16">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B79" s="24"/>
+      <c r="B79" s="13"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="27">
+      <c r="A80" s="16">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B80" s="24"/>
+      <c r="B80" s="13"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="27">
+      <c r="A81" s="16">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B81" s="24"/>
+      <c r="B81" s="13"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="27">
+      <c r="A82" s="16">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B82" s="24"/>
+      <c r="B82" s="13"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="27">
+      <c r="A83" s="16">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B83" s="24"/>
+      <c r="B83" s="13"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="27">
+      <c r="A84" s="16">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B84" s="24"/>
+      <c r="B84" s="13"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="27">
+      <c r="A85" s="16">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B85" s="24"/>
+      <c r="B85" s="13"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="27">
+      <c r="A86" s="16">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B86" s="24"/>
+      <c r="B86" s="13"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="27">
+      <c r="A87" s="16">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B87" s="24"/>
+      <c r="B87" s="13"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="27">
+      <c r="A88" s="16">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B88" s="24"/>
+      <c r="B88" s="13"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="27">
+      <c r="A89" s="16">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B89" s="24"/>
+      <c r="B89" s="13"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="27">
+      <c r="A90" s="16">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B90" s="24"/>
+      <c r="B90" s="13"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="27">
+      <c r="A91" s="16">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B91" s="24"/>
+      <c r="B91" s="13"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="27">
+      <c r="A92" s="16">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B92" s="24"/>
+      <c r="B92" s="13"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="27">
+      <c r="A93" s="16">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B93" s="24"/>
+      <c r="B93" s="13"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="27">
+      <c r="A94" s="16">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B94" s="24"/>
+      <c r="B94" s="13"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="27">
+      <c r="A95" s="16">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="B95" s="24"/>
+      <c r="B95" s="13"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="27">
+      <c r="A96" s="16">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="B96" s="24"/>
+      <c r="B96" s="13"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="27">
+      <c r="A97" s="16">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="B97" s="24"/>
+      <c r="B97" s="13"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="27">
+      <c r="A98" s="16">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="B98" s="24"/>
+      <c r="B98" s="13"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="27">
+      <c r="A99" s="16">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="B99" s="24"/>
+      <c r="B99" s="13"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="27">
+      <c r="A100" s="16">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="B100" s="24"/>
+      <c r="B100" s="13"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="27">
+      <c r="A101" s="16">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="B101" s="24"/>
+      <c r="B101" s="13"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="27">
+      <c r="A102" s="16">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="B102" s="24"/>
+      <c r="B102" s="13"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="27">
+      <c r="A103" s="16">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="B103" s="24"/>
+      <c r="B103" s="13"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="27">
+      <c r="A104" s="16">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="B104" s="24"/>
+      <c r="B104" s="13"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="27">
+      <c r="A105" s="16">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="B105" s="24"/>
+      <c r="B105" s="13"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="27">
+      <c r="A106" s="16">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="B106" s="24"/>
+      <c r="B106" s="13"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="27">
+      <c r="A107" s="16">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="B107" s="24"/>
+      <c r="B107" s="13"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="27">
+      <c r="A108" s="16">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="B108" s="24"/>
+      <c r="B108" s="13"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="27">
+      <c r="A109" s="16">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="B109" s="24"/>
+      <c r="B109" s="13"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="27">
+      <c r="A110" s="16">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="B110" s="24"/>
+      <c r="B110" s="13"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="27">
+      <c r="A111" s="16">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="B111" s="24"/>
+      <c r="B111" s="13"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="27">
+      <c r="A112" s="16">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="B112" s="24"/>
+      <c r="B112" s="13"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="27">
+      <c r="A113" s="16">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="B113" s="24"/>
+      <c r="B113" s="13"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="27">
+      <c r="A114" s="16">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="B114" s="24"/>
+      <c r="B114" s="13"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="27">
+      <c r="A115" s="16">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="B115" s="24"/>
+      <c r="B115" s="13"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="27">
+      <c r="A116" s="16">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="B116" s="24"/>
+      <c r="B116" s="13"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="27">
+      <c r="A117" s="16">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="B117" s="24"/>
+      <c r="B117" s="13"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="27">
+      <c r="A118" s="16">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="B118" s="24"/>
+      <c r="B118" s="13"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="27">
+      <c r="A119" s="16">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="B119" s="24"/>
+      <c r="B119" s="13"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="27">
+      <c r="A120" s="16">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="B120" s="24"/>
+      <c r="B120" s="13"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="27">
+      <c r="A121" s="16">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="B121" s="24"/>
+      <c r="B121" s="13"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="27">
+      <c r="A122" s="16">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="B122" s="24"/>
+      <c r="B122" s="13"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="27">
+      <c r="A123" s="16">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="B123" s="24"/>
+      <c r="B123" s="13"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="27">
+      <c r="A124" s="16">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="B124" s="24"/>
+      <c r="B124" s="13"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="27">
+      <c r="A125" s="16">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="B125" s="24"/>
+      <c r="B125" s="13"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="27">
+      <c r="A126" s="16">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="B126" s="24"/>
+      <c r="B126" s="13"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="27">
+      <c r="A127" s="16">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="B127" s="24"/>
+      <c r="B127" s="13"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="27">
+      <c r="A128" s="16">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="B128" s="24"/>
+      <c r="B128" s="13"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="27">
+      <c r="A129" s="16">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="B129" s="24"/>
+      <c r="B129" s="13"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="27">
+      <c r="A130" s="16">
         <f t="shared" si="1"/>
         <v>128</v>
       </c>
-      <c r="B130" s="24"/>
+      <c r="B130" s="13"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="27">
+      <c r="A131" s="16">
         <f t="shared" si="1"/>
         <v>129</v>
       </c>
-      <c r="B131" s="24"/>
+      <c r="B131" s="13"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="27">
+      <c r="A132" s="16">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>130</v>
       </c>
-      <c r="B132" s="24"/>
+      <c r="B132" s="13"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="27">
+      <c r="A133" s="16">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-      <c r="B133" s="24"/>
+      <c r="B133" s="13"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="27">
+      <c r="A134" s="16">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="B134" s="24"/>
+      <c r="B134" s="13"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="27">
+      <c r="A135" s="16">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-      <c r="B135" s="24"/>
+      <c r="B135" s="13"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="27">
+      <c r="A136" s="16">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="B136" s="24"/>
+      <c r="B136" s="13"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="27">
+      <c r="A137" s="16">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="B137" s="24"/>
+      <c r="B137" s="13"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="27">
+      <c r="A138" s="16">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="B138" s="24"/>
+      <c r="B138" s="13"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="27">
+      <c r="A139" s="16">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-      <c r="B139" s="24"/>
+      <c r="B139" s="13"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="27">
+      <c r="A140" s="16">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="B140" s="24"/>
+      <c r="B140" s="13"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="27">
+      <c r="A141" s="16">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-      <c r="B141" s="24"/>
+      <c r="B141" s="13"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="27">
+      <c r="A142" s="16">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="B142" s="24"/>
+      <c r="B142" s="13"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="27">
+      <c r="A143" s="16">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="B143" s="24"/>
+      <c r="B143" s="13"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="27">
+      <c r="A144" s="16">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="B144" s="24"/>
+      <c r="B144" s="13"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="27">
+      <c r="A145" s="16">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-      <c r="B145" s="24"/>
+      <c r="B145" s="13"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="27">
+      <c r="A146" s="16">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="B146" s="24"/>
+      <c r="B146" s="13"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="27">
+      <c r="A147" s="16">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-      <c r="B147" s="24"/>
+      <c r="B147" s="13"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="27">
+      <c r="A148" s="16">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-      <c r="B148" s="24"/>
+      <c r="B148" s="13"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="27">
+      <c r="A149" s="16">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-      <c r="B149" s="24"/>
+      <c r="B149" s="13"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="27">
+      <c r="A150" s="16">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="B150" s="24"/>
+      <c r="B150" s="13"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="27">
+      <c r="A151" s="16">
         <f t="shared" si="2"/>
         <v>149</v>
       </c>
-      <c r="B151" s="24"/>
+      <c r="B151" s="13"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="27">
+      <c r="A152" s="16">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="B152" s="24"/>
+      <c r="B152" s="13"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="27">
+      <c r="A153" s="16">
         <f t="shared" si="2"/>
         <v>151</v>
       </c>
-      <c r="B153" s="24"/>
+      <c r="B153" s="13"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="27">
+      <c r="A154" s="16">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="B154" s="24"/>
+      <c r="B154" s="13"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="27">
+      <c r="A155" s="16">
         <f t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="B155" s="24"/>
+      <c r="B155" s="13"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="27">
+      <c r="A156" s="16">
         <f t="shared" si="2"/>
         <v>154</v>
       </c>
-      <c r="B156" s="24"/>
+      <c r="B156" s="13"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="27">
+      <c r="A157" s="16">
         <f t="shared" si="2"/>
         <v>155</v>
       </c>
-      <c r="B157" s="24"/>
+      <c r="B157" s="13"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="27">
+      <c r="A158" s="16">
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="B158" s="24"/>
+      <c r="B158" s="13"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="27">
+      <c r="A159" s="16">
         <f t="shared" si="2"/>
         <v>157</v>
       </c>
-      <c r="B159" s="24"/>
+      <c r="B159" s="13"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="27">
+      <c r="A160" s="16">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="B160" s="24"/>
+      <c r="B160" s="13"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="27">
+      <c r="A161" s="16">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="B161" s="24"/>
+      <c r="B161" s="13"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="27">
+      <c r="A162" s="16">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="B162" s="24"/>
+      <c r="B162" s="13"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="27">
+      <c r="A163" s="16">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
-      <c r="B163" s="24"/>
+      <c r="B163" s="13"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="27">
+      <c r="A164" s="16">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
-      <c r="B164" s="24"/>
+      <c r="B164" s="13"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="27">
+      <c r="A165" s="16">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
-      <c r="B165" s="24"/>
+      <c r="B165" s="13"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="27">
+      <c r="A166" s="16">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="B166" s="24"/>
+      <c r="B166" s="13"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="27">
+      <c r="A167" s="16">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="B167" s="24"/>
+      <c r="B167" s="13"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="27">
+      <c r="A168" s="16">
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="B168" s="24"/>
+      <c r="B168" s="13"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="27">
+      <c r="A169" s="16">
         <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="B169" s="24"/>
+      <c r="B169" s="13"/>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="27">
+      <c r="A170" s="16">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="B170" s="24"/>
+      <c r="B170" s="13"/>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="27">
+      <c r="A171" s="16">
         <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="B171" s="24"/>
+      <c r="B171" s="13"/>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="27">
+      <c r="A172" s="16">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="B172" s="24"/>
+      <c r="B172" s="13"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="27">
+      <c r="A173" s="16">
         <f t="shared" si="2"/>
         <v>171</v>
       </c>
-      <c r="B173" s="24"/>
+      <c r="B173" s="13"/>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="27">
+      <c r="A174" s="16">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="B174" s="24"/>
+      <c r="B174" s="13"/>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="27">
+      <c r="A175" s="16">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="B175" s="24"/>
+      <c r="B175" s="13"/>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="27">
+      <c r="A176" s="16">
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="B176" s="24"/>
+      <c r="B176" s="13"/>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="27">
+      <c r="A177" s="16">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="B177" s="24"/>
+      <c r="B177" s="13"/>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="27">
+      <c r="A178" s="16">
         <f t="shared" si="2"/>
         <v>176</v>
       </c>
-      <c r="B178" s="24"/>
+      <c r="B178" s="13"/>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="27">
+      <c r="A179" s="16">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="B179" s="24"/>
+      <c r="B179" s="13"/>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="27">
+      <c r="A180" s="16">
         <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="B180" s="24"/>
+      <c r="B180" s="13"/>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="27">
+      <c r="A181" s="16">
         <f t="shared" si="2"/>
         <v>179</v>
       </c>
-      <c r="B181" s="24"/>
+      <c r="B181" s="13"/>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="27">
+      <c r="A182" s="16">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="B182" s="24"/>
+      <c r="B182" s="13"/>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="27">
+      <c r="A183" s="16">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="B183" s="24"/>
+      <c r="B183" s="13"/>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="27">
+      <c r="A184" s="16">
         <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="B184" s="24"/>
+      <c r="B184" s="13"/>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="27">
+      <c r="A185" s="16">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="B185" s="24"/>
+      <c r="B185" s="13"/>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="27">
+      <c r="A186" s="16">
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="B186" s="24"/>
+      <c r="B186" s="13"/>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="27">
+      <c r="A187" s="16">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="B187" s="24"/>
+      <c r="B187" s="13"/>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="27">
+      <c r="A188" s="16">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="B188" s="24"/>
+      <c r="B188" s="13"/>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="27">
+      <c r="A189" s="16">
         <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="B189" s="24"/>
+      <c r="B189" s="13"/>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="27">
+      <c r="A190" s="16">
         <f t="shared" si="2"/>
         <v>188</v>
       </c>
-      <c r="B190" s="24"/>
+      <c r="B190" s="13"/>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="27">
+      <c r="A191" s="16">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="B191" s="24"/>
+      <c r="B191" s="13"/>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="27">
+      <c r="A192" s="16">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="B192" s="24"/>
+      <c r="B192" s="13"/>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="27">
+      <c r="A193" s="16">
         <f t="shared" si="2"/>
         <v>191</v>
       </c>
-      <c r="B193" s="24"/>
+      <c r="B193" s="13"/>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="27">
+      <c r="A194" s="16">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="B194" s="24"/>
+      <c r="B194" s="13"/>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="27">
+      <c r="A195" s="16">
         <f t="shared" si="2"/>
         <v>193</v>
       </c>
-      <c r="B195" s="24"/>
+      <c r="B195" s="13"/>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="27">
+      <c r="A196" s="16">
         <f t="shared" ref="A196:A202" si="3">A195+1</f>
         <v>194</v>
       </c>
-      <c r="B196" s="24"/>
+      <c r="B196" s="13"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="27">
+      <c r="A197" s="16">
         <f t="shared" si="3"/>
         <v>195</v>
       </c>
-      <c r="B197" s="24"/>
+      <c r="B197" s="13"/>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="27">
+      <c r="A198" s="16">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="B198" s="24"/>
+      <c r="B198" s="13"/>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="27">
+      <c r="A199" s="16">
         <f t="shared" si="3"/>
         <v>197</v>
       </c>
-      <c r="B199" s="24"/>
+      <c r="B199" s="13"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="27">
+      <c r="A200" s="16">
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="B200" s="24"/>
+      <c r="B200" s="13"/>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="27">
+      <c r="A201" s="16">
         <f t="shared" si="3"/>
         <v>199</v>
       </c>
-      <c r="B201" s="24"/>
+      <c r="B201" s="13"/>
     </row>
     <row r="202" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="28">
+      <c r="A202" s="17">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="B202" s="24"/>
+      <c r="B202" s="13"/>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="25"/>
-      <c r="B203" s="6"/>
+      <c r="A203" s="14"/>
+      <c r="B203" s="4"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="5"/>
-      <c r="B204" s="6"/>
+      <c r="A204" s="3"/>
+      <c r="B204" s="4"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="5"/>
-      <c r="B205" s="6"/>
+      <c r="A205" s="3"/>
+      <c r="B205" s="4"/>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="5"/>
-      <c r="B206" s="6"/>
+      <c r="A206" s="3"/>
+      <c r="B206" s="4"/>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="5"/>
-      <c r="B207" s="6"/>
+      <c r="A207" s="3"/>
+      <c r="B207" s="4"/>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="5"/>
-      <c r="B208" s="6"/>
+      <c r="A208" s="3"/>
+      <c r="B208" s="4"/>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="5"/>
-      <c r="B209" s="6"/>
+      <c r="A209" s="3"/>
+      <c r="B209" s="4"/>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="5"/>
-      <c r="B210" s="6"/>
+      <c r="A210" s="3"/>
+      <c r="B210" s="4"/>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="5"/>
-      <c r="B211" s="6"/>
+      <c r="A211" s="3"/>
+      <c r="B211" s="4"/>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="5"/>
-      <c r="B212" s="6"/>
+      <c r="A212" s="3"/>
+      <c r="B212" s="4"/>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="5"/>
-      <c r="B213" s="6"/>
+      <c r="A213" s="3"/>
+      <c r="B213" s="4"/>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="5"/>
-      <c r="B214" s="6"/>
+      <c r="A214" s="3"/>
+      <c r="B214" s="4"/>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="5"/>
-      <c r="B215" s="6"/>
+      <c r="A215" s="3"/>
+      <c r="B215" s="4"/>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="5"/>
-      <c r="B216" s="6"/>
+      <c r="A216" s="3"/>
+      <c r="B216" s="4"/>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="5"/>
-      <c r="B217" s="6"/>
+      <c r="A217" s="3"/>
+      <c r="B217" s="4"/>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="5"/>
-      <c r="B218" s="6"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="4"/>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="5"/>
-      <c r="B219" s="6"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="4"/>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="5"/>
-      <c r="B220" s="6"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="4"/>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="5"/>
-      <c r="B221" s="6"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="4"/>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="5"/>
-      <c r="B222" s="6"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="4"/>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="5"/>
-      <c r="B223" s="6"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="4"/>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="5"/>
-      <c r="B224" s="6"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="4"/>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="5"/>
-      <c r="B225" s="6"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="4"/>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="5"/>
-      <c r="B226" s="6"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="4"/>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="5"/>
-      <c r="B227" s="6"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="4"/>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="5"/>
-      <c r="B228" s="6"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="4"/>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="5"/>
-      <c r="B229" s="6"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="4"/>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="5"/>
-      <c r="B230" s="6"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="4"/>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="5"/>
-      <c r="B231" s="6"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="4"/>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="5"/>
-      <c r="B232" s="6"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="4"/>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="5"/>
-      <c r="B233" s="6"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="4"/>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="5"/>
-      <c r="B234" s="6"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="4"/>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="5"/>
-      <c r="B235" s="6"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="4"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="5"/>
-      <c r="B236" s="6"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="4"/>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="5"/>
-      <c r="B237" s="6"/>
+      <c r="A237" s="3"/>
+      <c r="B237" s="4"/>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="5"/>
-      <c r="B238" s="6"/>
+      <c r="A238" s="3"/>
+      <c r="B238" s="4"/>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="5"/>
-      <c r="B239" s="6"/>
+      <c r="A239" s="3"/>
+      <c r="B239" s="4"/>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="5"/>
-      <c r="B240" s="6"/>
+      <c r="A240" s="3"/>
+      <c r="B240" s="4"/>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="5"/>
-      <c r="B241" s="6"/>
+      <c r="A241" s="3"/>
+      <c r="B241" s="4"/>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="5"/>
-      <c r="B242" s="6"/>
+      <c r="A242" s="3"/>
+      <c r="B242" s="4"/>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="5"/>
-      <c r="B243" s="6"/>
+      <c r="A243" s="3"/>
+      <c r="B243" s="4"/>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="5"/>
-      <c r="B244" s="6"/>
+      <c r="A244" s="3"/>
+      <c r="B244" s="4"/>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="5"/>
-      <c r="B245" s="6"/>
+      <c r="A245" s="3"/>
+      <c r="B245" s="4"/>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="5"/>
-      <c r="B246" s="6"/>
+      <c r="A246" s="3"/>
+      <c r="B246" s="4"/>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="5"/>
-      <c r="B247" s="6"/>
+      <c r="A247" s="3"/>
+      <c r="B247" s="4"/>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="5"/>
-      <c r="B248" s="6"/>
+      <c r="A248" s="3"/>
+      <c r="B248" s="4"/>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="5"/>
-      <c r="B249" s="6"/>
+      <c r="A249" s="3"/>
+      <c r="B249" s="4"/>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="5"/>
-      <c r="B250" s="6"/>
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="5"/>
-      <c r="B251" s="6"/>
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="5"/>
-      <c r="B252" s="6"/>
+      <c r="A252" s="3"/>
+      <c r="B252" s="4"/>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="5"/>
-      <c r="B253" s="6"/>
+      <c r="A253" s="3"/>
+      <c r="B253" s="4"/>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="5"/>
-      <c r="B254" s="6"/>
+      <c r="A254" s="3"/>
+      <c r="B254" s="4"/>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="5"/>
-      <c r="B255" s="6"/>
+      <c r="A255" s="3"/>
+      <c r="B255" s="4"/>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="5"/>
-      <c r="B256" s="6"/>
+      <c r="A256" s="3"/>
+      <c r="B256" s="4"/>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="5"/>
-      <c r="B257" s="6"/>
+      <c r="A257" s="3"/>
+      <c r="B257" s="4"/>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="5"/>
-      <c r="B258" s="6"/>
+      <c r="A258" s="3"/>
+      <c r="B258" s="4"/>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="5"/>
-      <c r="B259" s="6"/>
+      <c r="A259" s="3"/>
+      <c r="B259" s="4"/>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="5"/>
-      <c r="B260" s="6"/>
+      <c r="A260" s="3"/>
+      <c r="B260" s="4"/>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="5"/>
-      <c r="B261" s="6"/>
+      <c r="A261" s="3"/>
+      <c r="B261" s="4"/>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="5"/>
-      <c r="B262" s="6"/>
+      <c r="A262" s="3"/>
+      <c r="B262" s="4"/>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="5"/>
-      <c r="B263" s="6"/>
+      <c r="A263" s="3"/>
+      <c r="B263" s="4"/>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="5"/>
-      <c r="B264" s="6"/>
+      <c r="A264" s="3"/>
+      <c r="B264" s="4"/>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="5"/>
-      <c r="B265" s="6"/>
+      <c r="A265" s="3"/>
+      <c r="B265" s="4"/>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="5"/>
-      <c r="B266" s="6"/>
+      <c r="A266" s="3"/>
+      <c r="B266" s="4"/>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="5"/>
-      <c r="B267" s="6"/>
+      <c r="A267" s="3"/>
+      <c r="B267" s="4"/>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="5"/>
-      <c r="B268" s="6"/>
+      <c r="A268" s="3"/>
+      <c r="B268" s="4"/>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="5"/>
-      <c r="B269" s="6"/>
+      <c r="A269" s="3"/>
+      <c r="B269" s="4"/>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="5"/>
-      <c r="B270" s="6"/>
+      <c r="A270" s="3"/>
+      <c r="B270" s="4"/>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="5"/>
-      <c r="B271" s="6"/>
+      <c r="A271" s="3"/>
+      <c r="B271" s="4"/>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="5"/>
-      <c r="B272" s="6"/>
+      <c r="A272" s="3"/>
+      <c r="B272" s="4"/>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="5"/>
-      <c r="B273" s="6"/>
+      <c r="A273" s="3"/>
+      <c r="B273" s="4"/>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="5"/>
-      <c r="B274" s="6"/>
+      <c r="A274" s="3"/>
+      <c r="B274" s="4"/>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="5"/>
-      <c r="B275" s="6"/>
+      <c r="A275" s="3"/>
+      <c r="B275" s="4"/>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="5"/>
-      <c r="B276" s="6"/>
+      <c r="A276" s="3"/>
+      <c r="B276" s="4"/>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="5"/>
-      <c r="B277" s="6"/>
+      <c r="A277" s="3"/>
+      <c r="B277" s="4"/>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="5"/>
-      <c r="B278" s="6"/>
+      <c r="A278" s="3"/>
+      <c r="B278" s="4"/>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="5"/>
-      <c r="B279" s="6"/>
+      <c r="A279" s="3"/>
+      <c r="B279" s="4"/>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="5"/>
-      <c r="B280" s="6"/>
+      <c r="A280" s="3"/>
+      <c r="B280" s="4"/>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="5"/>
-      <c r="B281" s="6"/>
+      <c r="A281" s="3"/>
+      <c r="B281" s="4"/>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="5"/>
-      <c r="B282" s="6"/>
+      <c r="A282" s="3"/>
+      <c r="B282" s="4"/>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="5"/>
-      <c r="B283" s="6"/>
+      <c r="A283" s="3"/>
+      <c r="B283" s="4"/>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="5"/>
-      <c r="B284" s="6"/>
+      <c r="A284" s="3"/>
+      <c r="B284" s="4"/>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="5"/>
-      <c r="B285" s="6"/>
+      <c r="A285" s="3"/>
+      <c r="B285" s="4"/>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="5"/>
-      <c r="B286" s="6"/>
+      <c r="A286" s="3"/>
+      <c r="B286" s="4"/>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="5"/>
-      <c r="B287" s="6"/>
+      <c r="A287" s="3"/>
+      <c r="B287" s="4"/>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="5"/>
-      <c r="B288" s="6"/>
+      <c r="A288" s="3"/>
+      <c r="B288" s="4"/>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="5"/>
-      <c r="B289" s="6"/>
+      <c r="A289" s="3"/>
+      <c r="B289" s="4"/>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="5"/>
-      <c r="B290" s="6"/>
+      <c r="A290" s="3"/>
+      <c r="B290" s="4"/>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="5"/>
-      <c r="B291" s="6"/>
+      <c r="A291" s="3"/>
+      <c r="B291" s="4"/>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="5"/>
-      <c r="B292" s="6"/>
+      <c r="A292" s="3"/>
+      <c r="B292" s="4"/>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="5"/>
-      <c r="B293" s="6"/>
+      <c r="A293" s="3"/>
+      <c r="B293" s="4"/>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="5"/>
-      <c r="B294" s="6"/>
+      <c r="A294" s="3"/>
+      <c r="B294" s="4"/>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="5"/>
-      <c r="B295" s="6"/>
+      <c r="A295" s="3"/>
+      <c r="B295" s="4"/>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="5"/>
-      <c r="B296" s="6"/>
+      <c r="A296" s="3"/>
+      <c r="B296" s="4"/>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="5"/>
-      <c r="B297" s="6"/>
+      <c r="A297" s="3"/>
+      <c r="B297" s="4"/>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="5"/>
-      <c r="B298" s="6"/>
+      <c r="A298" s="3"/>
+      <c r="B298" s="4"/>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="5"/>
-      <c r="B299" s="6"/>
+      <c r="A299" s="3"/>
+      <c r="B299" s="4"/>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="5"/>
-      <c r="B300" s="6"/>
+      <c r="A300" s="3"/>
+      <c r="B300" s="4"/>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="5"/>
-      <c r="B301" s="6"/>
+      <c r="A301" s="3"/>
+      <c r="B301" s="4"/>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="5"/>
-      <c r="B302" s="6"/>
+      <c r="A302" s="3"/>
+      <c r="B302" s="4"/>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="5"/>
-      <c r="B303" s="6"/>
+      <c r="A303" s="3"/>
+      <c r="B303" s="4"/>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="5"/>
-      <c r="B304" s="6"/>
+      <c r="A304" s="3"/>
+      <c r="B304" s="4"/>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="5"/>
-      <c r="B305" s="6"/>
+      <c r="A305" s="3"/>
+      <c r="B305" s="4"/>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="5"/>
-      <c r="B306" s="6"/>
+      <c r="A306" s="3"/>
+      <c r="B306" s="4"/>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="5"/>
-      <c r="B307" s="6"/>
+      <c r="A307" s="3"/>
+      <c r="B307" s="4"/>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="5"/>
-      <c r="B308" s="6"/>
+      <c r="A308" s="3"/>
+      <c r="B308" s="4"/>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="5"/>
-      <c r="B309" s="6"/>
+      <c r="A309" s="3"/>
+      <c r="B309" s="4"/>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="5"/>
-      <c r="B310" s="6"/>
+      <c r="A310" s="3"/>
+      <c r="B310" s="4"/>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="5"/>
-      <c r="B311" s="6"/>
+      <c r="A311" s="3"/>
+      <c r="B311" s="4"/>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="5"/>
-      <c r="B312" s="6"/>
+      <c r="A312" s="3"/>
+      <c r="B312" s="4"/>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="5"/>
-      <c r="B313" s="6"/>
+      <c r="A313" s="3"/>
+      <c r="B313" s="4"/>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="5"/>
-      <c r="B314" s="6"/>
+      <c r="A314" s="3"/>
+      <c r="B314" s="4"/>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="5"/>
-      <c r="B315" s="6"/>
+      <c r="A315" s="3"/>
+      <c r="B315" s="4"/>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="5"/>
-      <c r="B316" s="6"/>
+      <c r="A316" s="3"/>
+      <c r="B316" s="4"/>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="5"/>
-      <c r="B317" s="6"/>
+      <c r="A317" s="3"/>
+      <c r="B317" s="4"/>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="5"/>
-      <c r="B318" s="6"/>
+      <c r="A318" s="3"/>
+      <c r="B318" s="4"/>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="5"/>
-      <c r="B319" s="6"/>
+      <c r="A319" s="3"/>
+      <c r="B319" s="4"/>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="5"/>
-      <c r="B320" s="6"/>
+      <c r="A320" s="3"/>
+      <c r="B320" s="4"/>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="5"/>
-      <c r="B321" s="6"/>
+      <c r="A321" s="3"/>
+      <c r="B321" s="4"/>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="5"/>
-      <c r="B322" s="6"/>
+      <c r="A322" s="3"/>
+      <c r="B322" s="4"/>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="5"/>
-      <c r="B323" s="6"/>
+      <c r="A323" s="3"/>
+      <c r="B323" s="4"/>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="5"/>
-      <c r="B324" s="6"/>
+      <c r="A324" s="3"/>
+      <c r="B324" s="4"/>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="5"/>
-      <c r="B325" s="6"/>
+      <c r="A325" s="3"/>
+      <c r="B325" s="4"/>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="5"/>
-      <c r="B326" s="6"/>
+      <c r="A326" s="3"/>
+      <c r="B326" s="4"/>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="5"/>
-      <c r="B327" s="6"/>
+      <c r="A327" s="3"/>
+      <c r="B327" s="4"/>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="5"/>
-      <c r="B328" s="6"/>
+      <c r="A328" s="3"/>
+      <c r="B328" s="4"/>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="5"/>
-      <c r="B329" s="6"/>
+      <c r="A329" s="3"/>
+      <c r="B329" s="4"/>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="5"/>
-      <c r="B330" s="6"/>
+      <c r="A330" s="3"/>
+      <c r="B330" s="4"/>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="5"/>
-      <c r="B331" s="6"/>
+      <c r="A331" s="3"/>
+      <c r="B331" s="4"/>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="5"/>
-      <c r="B332" s="6"/>
+      <c r="A332" s="3"/>
+      <c r="B332" s="4"/>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="5"/>
-      <c r="B333" s="6"/>
+      <c r="A333" s="3"/>
+      <c r="B333" s="4"/>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="5"/>
-      <c r="B334" s="6"/>
+      <c r="A334" s="3"/>
+      <c r="B334" s="4"/>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="5"/>
-      <c r="B335" s="6"/>
+      <c r="A335" s="3"/>
+      <c r="B335" s="4"/>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="5"/>
-      <c r="B336" s="6"/>
+      <c r="A336" s="3"/>
+      <c r="B336" s="4"/>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="5"/>
-      <c r="B337" s="6"/>
+      <c r="A337" s="3"/>
+      <c r="B337" s="4"/>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="5"/>
-      <c r="B338" s="6"/>
+      <c r="A338" s="3"/>
+      <c r="B338" s="4"/>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="5"/>
-      <c r="B339" s="6"/>
+      <c r="A339" s="3"/>
+      <c r="B339" s="4"/>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="5"/>
-      <c r="B340" s="6"/>
+      <c r="A340" s="3"/>
+      <c r="B340" s="4"/>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="5"/>
-      <c r="B341" s="6"/>
+      <c r="A341" s="3"/>
+      <c r="B341" s="4"/>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="5"/>
-      <c r="B342" s="6"/>
+      <c r="A342" s="3"/>
+      <c r="B342" s="4"/>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="5"/>
-      <c r="B343" s="6"/>
+      <c r="A343" s="3"/>
+      <c r="B343" s="4"/>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="5"/>
-      <c r="B344" s="6"/>
+      <c r="A344" s="3"/>
+      <c r="B344" s="4"/>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="5"/>
-      <c r="B345" s="6"/>
+      <c r="A345" s="3"/>
+      <c r="B345" s="4"/>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="5"/>
-      <c r="B346" s="6"/>
+      <c r="A346" s="3"/>
+      <c r="B346" s="4"/>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="5"/>
-      <c r="B347" s="6"/>
+      <c r="A347" s="3"/>
+      <c r="B347" s="4"/>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="5"/>
-      <c r="B348" s="6"/>
+      <c r="A348" s="3"/>
+      <c r="B348" s="4"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Xc3WzR5P8hSITUyJui0DLSCAfSRjRFt88h/gXVj6yu7/B/sW8BCwOMvDcUxJn0jP4m1mWnnAxT9/YOaotZT73Q==" saltValue="n+SPVinKz/adI2G48LRLMQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
